--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Manyara_IYCF.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Manyara_IYCF.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2017Sep/regions/IYCFonly/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="1400" windowWidth="20140" windowHeight="14260" tabRatio="500" firstSheet="17" activeTab="20"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="20140" windowHeight="14260" tabRatio="500" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -40,11 +35,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -2928,12 +2923,12 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2941,7 +2936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2949,7 +2944,7 @@
         <v>332178.90044136409</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2957,7 +2952,7 @@
         <v>64081.258879401757</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2965,7 +2960,7 @@
         <v>75345.877390763577</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2973,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2981,7 +2976,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2993,6 +2988,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3004,12 +3004,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
@@ -3615,6 +3615,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3626,13 +3631,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3649,7 +3654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3668,7 +3673,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -3687,7 +3692,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -3706,7 +3711,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -3725,7 +3730,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3744,7 +3749,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3763,7 +3768,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -3782,7 +3787,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -3801,113 +3806,118 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3919,9 +3929,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3935,7 +3945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -3951,6 +3961,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3960,12 +3975,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3985,7 +4000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -4005,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -4025,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -4045,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -4067,6 +4082,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4078,9 +4098,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4100,7 +4120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -4122,6 +4142,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4133,9 +4158,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -4149,7 +4174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4165,6 +4190,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4176,12 +4206,12 @@
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4201,7 +4231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4221,7 +4251,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4229,7 +4259,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4237,7 +4267,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4248,6 +4278,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4257,12 +4292,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -4282,7 +4317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4302,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -4322,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4342,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4364,6 +4399,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4373,13 +4413,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4399,7 +4439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -4421,6 +4461,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4430,12 +4475,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4452,7 +4497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -4469,14 +4514,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4485,6 +4530,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4496,13 +4546,13 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4510,7 +4560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
@@ -4518,7 +4568,7 @@
         <v>65319.481</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -4526,7 +4576,7 @@
         <v>66557.764999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -4534,7 +4584,7 @@
         <v>68105.62000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -4542,7 +4592,7 @@
         <v>69343.90400000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -4550,7 +4600,7 @@
         <v>70582.188000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
@@ -4558,7 +4608,7 @@
         <v>72130.043000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
@@ -4566,7 +4616,7 @@
         <v>73677.898000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>2024</v>
       </c>
@@ -4574,7 +4624,7 @@
         <v>74916.182000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>2025</v>
       </c>
@@ -4582,7 +4632,7 @@
         <v>76773.608000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>2026</v>
       </c>
@@ -4590,7 +4640,7 @@
         <v>78321.463000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>2027</v>
       </c>
@@ -4598,7 +4648,7 @@
         <v>79869.317999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>2028</v>
       </c>
@@ -4606,7 +4656,7 @@
         <v>81417.17300000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>2029</v>
       </c>
@@ -4614,7 +4664,7 @@
         <v>83274.599000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>2030</v>
       </c>
@@ -4624,6 +4674,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4631,11 +4686,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4643,7 +4698,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4657,7 +4712,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4674,7 +4729,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4691,7 +4746,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4705,7 +4760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4722,7 +4777,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4739,12 +4794,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="38">
-        <v>0</v>
+      <c r="B7" s="32">
+        <v>0.82999214732955595</v>
       </c>
       <c r="C7" s="37">
         <v>0.95</v>
@@ -4756,72 +4811,72 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
@@ -4829,6 +4884,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4836,9 +4896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -4848,7 +4908,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4873,7 +4933,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4896,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4921,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4945,7 +5005,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4968,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4991,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5014,65 +5074,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
@@ -5080,6 +5140,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5091,12 +5156,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5116,7 +5181,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5136,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -5155,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5175,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -5192,14 +5257,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -5209,6 +5274,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5220,12 +5290,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5248,7 +5318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5271,7 +5341,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5291,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5314,7 +5384,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5338,6 +5408,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5349,12 +5424,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5377,7 +5452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5400,7 +5475,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5420,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5446,7 +5521,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5470,6 +5545,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5481,12 +5561,12 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5509,7 +5589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5532,7 +5612,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5552,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5578,7 +5658,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5602,6 +5682,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5613,9 +5698,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5626,7 +5711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="29">
         <v>29</v>
       </c>
@@ -5637,7 +5722,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -5646,6 +5731,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5657,12 +5747,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5682,7 +5772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5702,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5722,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5742,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5762,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5782,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5802,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5822,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5842,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5862,7 +5952,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5882,7 +5972,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5902,7 +5992,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5922,7 +6012,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5942,7 +6032,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5962,7 +6052,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5982,7 +6072,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -6002,7 +6092,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6029,6 +6119,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6040,9 +6135,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -6065,7 +6160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -6093,7 +6188,7 @@
         <v>21.839457279977402</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6118,7 +6213,7 @@
         <v>36.959379929324918</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6138,7 +6233,7 @@
         <v>27.082444841979726</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6158,7 +6253,7 @@
         <v>14.118717948717949</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -6181,7 +6276,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6201,7 +6296,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6221,7 +6316,7 @@
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6241,7 +6336,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -6265,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6285,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -6305,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -6333,6 +6428,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6344,9 +6444,9 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6357,7 +6457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="31">
         <v>1.9255813953488372E-2</v>
       </c>
@@ -6370,6 +6470,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6381,9 +6486,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6403,7 +6508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -6423,7 +6528,7 @@
         <v>1.9722966101694916</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6447,6 +6552,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6456,9 +6566,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6481,7 +6591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6504,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6524,7 +6634,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6544,7 +6654,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6564,7 +6674,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6587,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6607,7 +6717,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6627,7 +6737,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6647,7 +6757,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6670,7 +6780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6690,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -6710,7 +6820,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6730,7 +6840,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6753,7 +6863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6773,7 +6883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6793,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6813,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6836,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -6856,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -6876,7 +6986,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -6898,6 +7008,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6907,9 +7022,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6932,7 +7047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6955,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6975,7 +7090,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6995,7 +7110,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -7015,7 +7130,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -7038,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -7058,7 +7173,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -7078,7 +7193,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -7098,7 +7213,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7121,7 +7236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7141,7 +7256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -7161,7 +7276,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -7181,7 +7296,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7204,7 +7319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7224,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -7244,7 +7359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7264,7 +7379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7287,7 +7402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7307,7 +7422,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7327,7 +7442,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7349,5 +7464,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>